--- a/public/preprocessing/@gusmiftah_.xlsx
+++ b/public/preprocessing/@gusmiftah_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13306</v>
+        <v>28911</v>
       </c>
       <c r="C2" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,17 +497,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['pada', 'akhir', 'nya', 'surga', 'itu', 'akan', 'ditempati', 'ahli', 'maksiat', 'yang', 'bertobat', 'bukan', 'orang', 'yang', 'sok', 'suci', 'yang', 'pada', 'akhirnya']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['surga', 'ditempati', 'ahli', 'maksiat', 'bertaubat', 'orang', 'sok', 'suci']</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['surga', 'tempat', 'ahli', 'maksiat', 'taubat', 'orang', 'sok', 'suci']</t>
+          <t>['surga', 'ditempati', 'ahli', 'maksiat', 'bertobat', 'orang', 'sok', 'suci']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['surga', 'tempat', 'ahli', 'maksiat', 'tobat', 'orang', 'sok', 'suci']</t>
         </is>
       </c>
     </row>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13307</v>
+        <v>28912</v>
       </c>
       <c r="C3" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -528,15 +538,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['orang', 'yang', 'mengabaikan', 'kesehatan', 'dirinya', 'adalah', 'orang', 'yang', 'menabung', 'masalah', 'untuk', 'masa', 'depannya', 'kesehatan', 'adal']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>['orang', 'mengabaikan', 'kesehatan', 'orang', 'menabung', 'depannya', 'kesehatan', 'adal']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>['orang', 'abai', 'sehat', 'orang', 'tabung', 'depan', 'sehat', 'adal']</t>
         </is>
@@ -547,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13308</v>
+        <v>28913</v>
       </c>
       <c r="C4" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,15 +579,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['berikan', 'aku', 'pemuda', 'maka', 'akan', 'kujadikan', 'ganteng', 'ganteng', 'serigala', 'alhamdulillah', 'kerawuhan', 'gus', 'kautsar', 'gus', 'fa']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>['pemuda', 'kujadikan', 'ganteng', 'ganteng', 'serigala', 'alhamdulillah', 'kerawuhan', 'gus', 'kautsar', 'gus', 'fa']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>['pemuda', 'jadi', 'ganteng', 'ganteng', 'serigala', 'alhamdulillah', 'rawuh', 'gus', 'tsar', 'gus', 'fa']</t>
         </is>
@@ -583,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13309</v>
+        <v>28914</v>
       </c>
       <c r="C5" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -600,17 +620,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['cerita', 'pendek', 'indosiar', 'biar', 'tidak', 'spaneng', 'lihat', 'berita', 'isinya', 'anu', 'semua']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['cerita', 'pendek', 'indosiar', 'spaneng', 'liat', 'berita', 'isinya', 'anu']</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['cerita', 'pendek', 'indosiar', 'spaneng', 'liat', 'berita', 'isi', 'anu']</t>
+          <t>['cerita', 'pendek', 'indosiar', 'spaneng', 'lihat', 'berita', 'isinya', 'anu']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['cerita', 'pendek', 'indosiar', 'spaneng', 'lihat', 'berita', 'isi', 'anu']</t>
         </is>
       </c>
     </row>
@@ -619,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13310</v>
+        <v>28915</v>
       </c>
       <c r="C6" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,17 +661,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['maaf', 'mau', 'tanya', 'untuk', 'koruptor', 'dana', 'bansos', 'corona', 'ada', 'enggak', 'istilah', 'yang', 'lebih', 'kasar', 'dibandingkan', 'ba', 'ji', 'gan', 'tol']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['maaf', 'koruptor', 'dana', 'bansos', 'corona', 'nggak', 'istilah', 'kasar', 'dibandingkan', 'ba', 'ji', 'ngan', 'tol']</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['maaf', 'koruptor', 'dana', 'bansos', 'corona', 'nggak', 'istilah', 'kasar', 'banding', 'ba', 'ji', 'ngan', 'tol']</t>
+          <t>['maaf', 'koruptor', 'dana', 'bansos', 'corona', 'istilah', 'kasar', 'dibandingkan', 'ba', 'ji', 'gan', 'tol']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['maaf', 'koruptor', 'dana', 'bansos', 'corona', 'istilah', 'kasar', 'banding', 'ba', 'ji', 'gan', 'tol']</t>
         </is>
       </c>
     </row>
@@ -655,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13311</v>
+        <v>28916</v>
       </c>
       <c r="C7" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,15 +702,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['semoga', 'bisa', 'menjadi', 'pelajaran', 'untuk', 'kita', 'semua', 'siapapun', 'yang', 'dihukum', 'adalah', 'perilakunya', 'bukan', 'sosoknya', 'sehingga']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>['semoga', 'pelajaran', 'dihukum', 'perilakunya', 'sosoknya']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['moga', 'ajar', 'hukum', 'perilaku', 'sosok']</t>
         </is>
@@ -691,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13312</v>
+        <v>28917</v>
       </c>
       <c r="C8" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -708,15 +743,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['tanggapan', 'saya', 'terhadap', 'kriminalisasi', 'ulama', 'hayyaalal', 'jihad', 'sikap', 'ketegasan', 'aparatur', 'sipil', 'dan', 'sikap', 'jamaah', 'terh']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>['tanggapan', 'kriminalisasi', 'ulama', 'hayyaalal', 'jihad', 'sikap', 'ketegasan', 'aparatur', 'sipil', 'sikap', 'jamaah', 'terh']</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>['tanggap', 'kriminalisasi', 'ulama', 'hayyaalal', 'jihad', 'sikap', 'tegas', 'aparatur', 'sipil', 'sikap', 'jamaah', 'terh']</t>
         </is>
@@ -727,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13313</v>
+        <v>28918</v>
       </c>
       <c r="C9" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -744,17 +784,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['hebat', 'gandoss']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['jos', 'gandoss']</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['jos', 'gandoss']</t>
+          <t>['hebat', 'gandoss']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['hebat', 'gandoss']</t>
         </is>
       </c>
     </row>
@@ -763,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13314</v>
+        <v>28919</v>
       </c>
       <c r="C10" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -780,15 +825,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['jika', 'kamu', 'sadar', 'sulitnya', 'mengubah', 'diri', 'sendiri', 'maka', 'kamu', 'akan', 'mengerti', 'betapa', 'kecilnya', 'peluang', 'untuk', 'mencoba', 'merub']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>['sadar', 'sulitnya', 'mengubah', 'mengerti', 'betapa', 'kecilnya', 'peluang', 'mencoba', 'merub']</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>['sadar', 'sulit', 'ubah', 'erti', 'betapa', 'kecil', 'peluang', 'coba', 'merub']</t>
         </is>
@@ -799,10 +849,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13315</v>
+        <v>28920</v>
       </c>
       <c r="C11" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -816,17 +866,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['semoga', 'ayah', 'sehat', 'selalu', 'panjang', 'umur', 'dan', 'selalu', 'membimbing', 'kami', 'amin']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['semoga', 'abah', 'sehat', 'umur', 'membimbing', 'aminn']</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['moga', 'abah', 'sehat', 'umur', 'bimbing', 'aminn']</t>
+          <t>['semoga', 'ayah', 'sehat', 'umur', 'membimbing', 'amin']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['moga', 'ayah', 'sehat', 'umur', 'bimbing', 'amin']</t>
         </is>
       </c>
     </row>
@@ -835,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13316</v>
+        <v>28921</v>
       </c>
       <c r="C12" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -852,15 +907,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['barakallah']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>['barakallah']</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['barakallah']</t>
         </is>
@@ -871,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13317</v>
+        <v>28922</v>
       </c>
       <c r="C13" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -888,17 +948,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['berkesempatan', 'ngajari', 'solawat', 'bule', 'mualaf', 'yang', 'sebelum', 'bersyahadat', 'adalah', 'seorang', 'ateis', 'ful', 'lengkap', 'nya', 'ada']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['berkesempatan', 'ngajari', 'solawat', 'bule', 'muallaf', 'bersyahadat', 'ateis', 'ful', 'lengkap', 'ad']</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['sempat', 'ngajari', 'solawat', 'bule', 'muallaf', 'syahadat', 'ateis', 'ful', 'lengkap', 'ad']</t>
+          <t>['berkesempatan', 'ngajari', 'solawat', 'bule', 'mualaf', 'bersyahadat', 'ateis', 'ful', 'lengkap']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['sempat', 'ngajari', 'solawat', 'bule', 'mualaf', 'syahadat', 'ateis', 'ful', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -907,10 +972,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13318</v>
+        <v>28923</v>
       </c>
       <c r="C14" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -924,15 +989,20 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['guru', 'mampu', 'mendidik', 'murid', 'muridnya', 'untuk', 'menjadi', 'pemimpin', 'pemimpin', 'negara', 'namun', 'kebijakan', 'negara', 'belum', 'banyak', 'berp']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>['guru', 'mendidik', 'murid', 'muridnya', 'pemimpin', 'pemimpin', 'negara', 'kebijakan', 'negara', 'berp']</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>['guru', 'didik', 'murid', 'murid', 'pimpin', 'pimpin', 'negara', 'bijak', 'negara', 'berp']</t>
         </is>
@@ -943,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13319</v>
+        <v>28924</v>
       </c>
       <c r="C15" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -960,15 +1030,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['part', 'cc']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>['part', 'cc']</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>['part', 'cc']</t>
         </is>
@@ -979,10 +1054,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13320</v>
+        <v>28925</v>
       </c>
       <c r="C16" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -996,15 +1071,20 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['part', 'terima', 'kasih', 'anak', 'anak', 'ku', 'di', 'lokalisasi', 'dan', 'club', 'malam', 'yang', 'tidak', 'terganggu', 'dengan', 'cangkeman', 'orang', 'yang', 'tidak']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>['part', 'terima', 'kasih', 'anak', 'anak', 'ku', 'lokalisasi', 'club', 'malam', 'terganggu', 'cangkeman', 'orang']</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>['part', 'terima', 'kasih', 'anak', 'anak', 'ku', 'lokalisasi', 'club', 'malam', 'ganggu', 'cangkeman', 'orang']</t>
         </is>
@@ -1015,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13321</v>
+        <v>28926</v>
       </c>
       <c r="C17" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1032,15 +1112,20 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['part', 'menyenangkan', 'karena', 'banyak', 'diantara', 'mereka', 'meminta', 'dituntun', 'syahadat', 'karena', 'tanpa', 'sepengetahuan', 'saya', 'ternyata']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>['part', 'menyenangkan', 'dituntun', 'syahadat', 'sepengetahuan']</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>['part', 'senang', 'tuntun', 'syahadat', 'tahu']</t>
         </is>
@@ -1051,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13322</v>
+        <v>28927</v>
       </c>
       <c r="C18" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1068,15 +1153,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['part', 'menyenangkan', 'karena', 'kita', 'melihat', 'mereka', 'menangis', 'ketika', 'diajak', 'berdoa', 'menyesali', 'apa', 'yang', 'mereka', 'perbuat', 'ter']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>['part', 'menyenangkan', 'menangis', 'diajak', 'berdoa', 'menyesali', 'perbuat', 'ter']</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['part', 'senang', 'menang', 'ajak', 'doa', 'sali', 'buat', 'ter']</t>
         </is>
@@ -1087,10 +1177,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13323</v>
+        <v>28928</v>
       </c>
       <c r="C19" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1104,15 +1194,20 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['part', 'kenapa', 'saya', 'katakan', 'pengajian', 'paling', 'menyenangkan', 'adalah', 'kalimat', 'sarkas', 'atau', 'sindiran', 'bagi', 'yang', 'suka', 'nya']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>['part', 'pengajian', 'menyenangkan', 'kalimat', 'sarkas', 'sindiran', 'suka']</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>['part', 'aji', 'senang', 'kalimat', 'sarkas', 'sindir', 'suka']</t>
         </is>
@@ -1123,10 +1218,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13324</v>
+        <v>28929</v>
       </c>
       <c r="C20" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1140,17 +1235,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['part', 'kita', 'bersama', 'warga', 'lokalisasi', 'sudah', 'tahun', 'pengajian', 'tetap', 'istikamah', 'dengan', 'warga', 'sarkem', 'yang', 'keluar', 'masuk']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['part', 'warga', 'lokalisasi', 'pengajian', 'istiqomah', 'warga', 'sarkem', 'masuk']</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['part', 'warga', 'lokalisasi', 'aji', 'istiqomah', 'warga', 'sarkem', 'masuk']</t>
+          <t>['part', 'warga', 'lokalisasi', 'pengajian', 'istikamah', 'warga', 'sarkem', 'masuk']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['part', 'warga', 'lokalisasi', 'aji', 'istikamah', 'warga', 'sarkem', 'masuk']</t>
         </is>
       </c>
     </row>
@@ -1159,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13325</v>
+        <v>28930</v>
       </c>
       <c r="C21" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1176,17 +1276,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['part', 'laskar', 'yoyakarta', 'kumpulan', 'pemuda', 'dari', 'berbagai', 'latar', 'belakang', 'preman', 'tukang', 'copet', 'tukang', 'parkir', 'germo', 'ange']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['part', 'laskar', 'jogja', 'kumpulan', 'pemuda', 'latar', 'preman', 'tukang', 'copet', 'tukang', 'parkir', 'germo', 'ange']</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['part', 'laskar', 'jogja', 'kumpul', 'pemuda', 'latar', 'preman', 'tukang', 'copet', 'tukang', 'parkir', 'germo', 'ange']</t>
+          <t>['part', 'laskar', 'yoyakarta', 'kumpulan', 'pemuda', 'latar', 'preman', 'tukang', 'copet', 'tukang', 'parkir', 'germo', 'ange']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['part', 'laskar', 'yoyakarta', 'kumpul', 'pemuda', 'latar', 'preman', 'tukang', 'copet', 'tukang', 'parkir', 'germo', 'ange']</t>
         </is>
       </c>
     </row>
@@ -1195,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>13326</v>
+        <v>28931</v>
       </c>
       <c r="C22" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1212,17 +1317,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['baca', 'ya', 'agak', 'panjang', 'part', 'sarkem', 'adalah', 'kompleks', 'lokalisasi', 'terbesar', 'di', 'yoyakarta', 'ketika', 'pengajian', 'bersama', 'mere']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['baca', 'yaa', 'part', 'sarkem', 'kompleks', 'lokalisasi', 'terbesar', 'jogja', 'pengajian', 'mere']</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['baca', 'yaa', 'part', 'sarkem', 'kompleks', 'lokalisasi', 'besar', 'jogja', 'aji', 'mere']</t>
+          <t>['baca', 'part', 'sarkem', 'kompleks', 'lokalisasi', 'terbesar', 'yoyakarta', 'pengajian', 'mere']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['baca', 'part', 'sarkem', 'kompleks', 'lokalisasi', 'besar', 'yoyakarta', 'aji', 'mere']</t>
         </is>
       </c>
     </row>
@@ -1231,10 +1341,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13327</v>
+        <v>28932</v>
       </c>
       <c r="C23" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1248,17 +1358,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['yang', 'di, luar', 'yoyakarta', 'tidak', 'usah', 'datang', 'ya', 'biar', 'tidak', 'overload', 'tempat', 'nya']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['diluar', 'jogja', 'ndak', 'overload']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['luar', 'jogja', 'ndak', 'overload']</t>
+          <t>['di, luar', 'yoyakarta', 'overload']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['di luar', 'yoyakarta', 'overload']</t>
         </is>
       </c>
     </row>
@@ -1267,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13328</v>
+        <v>28933</v>
       </c>
       <c r="C24" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1284,17 +1399,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['mohon', 'maaf', 'pengajian', 'nya', 'diajukan', 'ya', 'le', 'nduk', 'selasa', 'malam', 'rabu', 'november', 'pukul', 'mengaji', 'di', 'sarkem']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['mohon', 'maaf', 'pengajian', 'diajukan', 'le', 'nduk', 'selasa', 'malam', 'rabu', 'november', 'ngaji', 'sarkem']</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['mohon', 'maaf', 'aji', 'aju', 'le', 'nduk', 'selasa', 'malam', 'rabu', 'november', 'ngaji', 'sarkem']</t>
+          <t>['mohon', 'maaf', 'pengajian', 'diajukan', 'le', 'nduk', 'selasa', 'malam', 'rabu', 'november', 'mengaji', 'sarkem']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['mohon', 'maaf', 'aji', 'aju', 'le', 'nduk', 'selasa', 'malam', 'rabu', 'november', 'aji', 'sarkem']</t>
         </is>
       </c>
     </row>
@@ -1303,10 +1423,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13329</v>
+        <v>28934</v>
       </c>
       <c r="C25" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1320,17 +1440,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['jangan', 'lupa', 'hadir', 'ya', 'mak']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['lupa', 'hadir', 'yaa', 'mak']</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['lupa', 'hadir', 'yaa', 'mak']</t>
+          <t>['lupa', 'hadir', 'mak']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['lupa', 'hadir', 'mak']</t>
         </is>
       </c>
     </row>
@@ -1339,10 +1464,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13330</v>
+        <v>28935</v>
       </c>
       <c r="C26" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1356,15 +1481,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['adiansyah', 'bada', 'magrib', 'titik', 'kumpul', 'di', 'depan', 'hotel', 'neo', 'malioboro', 'jangan', 'lup']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>['adiansyah', 'bada', 'magrib', 'titik', 'kumpul', 'hotel', 'neo', 'malioboro', 'lup']</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>['adiansyah', 'bada', 'magrib', 'titik', 'kumpul', 'hotel', 'neo', 'malioboro', 'lup']</t>
         </is>
@@ -1375,10 +1505,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13331</v>
+        <v>28936</v>
       </c>
       <c r="C27" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1392,15 +1522,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['viralkan', 'biar', 'beliau', 'tau', 'undangan', 'sayasaya', 'undang', 'secara', 'terbuka', 'dan', 'saya', 'fasilitasi', 'serta', 'keamanan', 'saya', 'jamin']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>['viralkan', 'beliau', 'undangan', 'sayasaya', 'undang', 'terbuka', 'fasilitasi', 'keamanan', 'jamin']</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>['viralkan', 'beliau', 'undang', 'sayasaya', 'undang', 'buka', 'fasilitas', 'aman', 'jamin']</t>
         </is>
@@ -1411,10 +1546,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13332</v>
+        <v>28937</v>
       </c>
       <c r="C28" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1428,15 +1563,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['saya', 'undang', 'secara', 'terbuka', 'dan', 'saya', 'fasilitasi', 'keamanan', 'saya', 'jamin']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>['undang', 'terbuka', 'fasilitasi', 'keamanan', 'jamin']</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>['undang', 'buka', 'fasilitas', 'aman', 'jamin']</t>
         </is>
@@ -1447,10 +1587,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13333</v>
+        <v>28938</v>
       </c>
       <c r="C29" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1464,17 +1604,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['adiansyah', 'pasar', 'kembang', 'yoyakarta', 'samping', 'malioboro']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['adiansyah', 'pasar', 'kembang', 'jogja', 'samping', 'malioboro']</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['adiansyah', 'pasar', 'kembang', 'jogja', 'samping', 'malioboro']</t>
+          <t>['adiansyah', 'pasar', 'kembang', 'yoyakarta', 'samping', 'malioboro']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['adiansyah', 'pasar', 'kembang', 'yoyakarta', 'samping', 'malioboro']</t>
         </is>
       </c>
     </row>
@@ -1483,10 +1628,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13334</v>
+        <v>28939</v>
       </c>
       <c r="C30" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1500,17 +1645,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['yuk', 'yang', 'suka', 'nyinyir', 'malam', 'kamis', 'saya', 'ada', 'pengajian', 'di', 'lokalisasi', 'silakan', 'anda', 'datang', 'dan', 'komunikasi', 'langsung']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['yuk', 'suka', 'nyinyir', 'malam', 'kamis', 'pengajian', 'lokalisasi', 'silahkan', 'komunikasi', 'langsung']</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['yuk', 'suka', 'nyinyir', 'malam', 'kamis', 'aji', 'lokalisasi', 'silah', 'komunikasi', 'langsung']</t>
+          <t>['yuk', 'suka', 'nyinyir', 'malam', 'kamis', 'pengajian', 'lokalisasi', 'silakan', 'komunikasi', 'langsung']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['yuk', 'suka', 'nyinyir', 'malam', 'kamis', 'aji', 'lokalisasi', 'sila', 'komunikasi', 'langsung']</t>
         </is>
       </c>
     </row>
@@ -1519,10 +1669,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13335</v>
+        <v>28940</v>
       </c>
       <c r="C31" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1536,15 +1686,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['tolong', 'jangan', 'di', 'tag', 'orang', 'yang', 'saya', 'maksud', 'ya']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>['tolong', 'tag', 'orang', 'maksud']</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>['tolong', 'tag', 'orang', 'maksud']</t>
         </is>
@@ -1555,10 +1710,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13336</v>
+        <v>28941</v>
       </c>
       <c r="C32" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1572,15 +1727,20 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['saya', 'diserang', 'lagi', 'pokok', 'los', 'dol', 'sak', 'uni', 'unimu']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>['diserang', 'pokok', 'los', 'dol', 'sak', 'uni', 'unimu']</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>['serang', 'pokok', 'los', 'dol', 'sak', 'uni', 'uni']</t>
         </is>
@@ -1591,10 +1751,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13337</v>
+        <v>28942</v>
       </c>
       <c r="C33" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1608,15 +1768,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['prinsip', 'saya', 'kita', 'wajib', 'menghormati', 'orang', 'lain', 'tapi', 'orang', 'lain', 'tidak', 'wajib', 'menghormati', 'kita']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>['prinsip', 'wajib', 'menghormati', 'orang', 'orang', 'wajib', 'menghormati']</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>['prinsip', 'wajib', 'hormat', 'orang', 'orang', 'wajib', 'hormat']</t>
         </is>
@@ -1627,10 +1792,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13338</v>
+        <v>28943</v>
       </c>
       <c r="C34" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1644,17 +1809,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['sekarang', 'ini', 'banyak', 'yang', 'seperti', 'wasit', 'sepak, bola', 'lari', 'kesana', 'kemari', 'mencari', 'kesalahan', 'orang', 'lain']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['wasit', 'sepakbola', 'lari', 'kesana', 'kemari', 'mencari', 'kesalahan', 'orang']</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['wasit', 'sepakbola', 'lari', 'kesana', 'kemari', 'cari', 'salah', 'orang']</t>
+          <t>['wasit', 'sepak, bola', 'lari', 'kesana', 'kemari', 'mencari', 'kesalahan', 'orang']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['wasit', 'sepak bola', 'lari', 'kesana', 'kemari', 'cari', 'salah', 'orang']</t>
         </is>
       </c>
     </row>
@@ -1663,10 +1833,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13339</v>
+        <v>28944</v>
       </c>
       <c r="C35" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1680,15 +1850,20 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['setan', 'tidak', 'mencuri', 'tanah', 'mu', 'mobilmu', 'rumahmu', 'harta', 'benda', 'milik', 'mu', 'tapi', 'ingatlah', 'setan', 'selalu', 'mengintai', 'imanmu']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>['setan', 'mencuri', 'tanah', 'mu', 'mobilmu', 'rumahmu', 'harta', 'benda', 'milik', 'mu', 'ingatlah', 'setan', 'mengintai', 'imanmu']</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>['setan', 'curi', 'tanah', 'mu', 'mobil', 'rumah', 'harta', 'benda', 'milik', 'mu', 'ingat', 'setan', 'intai', 'iman']</t>
         </is>
@@ -1699,10 +1874,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13340</v>
+        <v>28945</v>
       </c>
       <c r="C36" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1716,17 +1891,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['saya', 'hanya', 'menerima', 'perintah', 'dari', 'guru', 'saya', 'untuk', 'menanggapi', 'dengan', 'cara', 'yang', 'baik', 'perihal', 'saya', 'diserang']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['menerima', 'dawuh', 'dr', 'guru', 'menanggapi', 'perihal', 'diserang']</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['terima', 'dawuh', 'dr', 'guru', 'tanggap', 'perihal', 'serang']</t>
+          <t>['menerima', 'perintah', 'guru', 'menanggapi', 'perihal', 'diserang']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['terima', 'perintah', 'guru', 'tanggap', 'perihal', 'serang']</t>
         </is>
       </c>
     </row>
@@ -1735,10 +1915,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13341</v>
+        <v>28946</v>
       </c>
       <c r="C37" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1752,17 +1932,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['itulah', 'hidayah', 'yang', 'tidak', 'bisa', 'ditebak', 'dan', 'diprediksi', 'mungkin', 'ada', 'yang', 'protes', 'kok', 'pakaian', 'nya', 'tidak', 'sopan', 'dan', 'bla', 'beli']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['hidayah', 'ditebak', 'diprediksi', 'protes', 'pakaian', 'sopan', 'bla', 'bl']</t>
+          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['hidayah', 'tebak', 'prediksi', 'protes', 'pakai', 'sopan', 'bla', 'bl']</t>
+          <t>['hidayah', 'ditebak', 'diprediksi', 'protes', 'pakaian', 'sopan', 'bla', 'beli']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['hidayah', 'tebak', 'prediksi', 'protes', 'pakai', 'sopan', 'bla', 'beli']</t>
         </is>
       </c>
     </row>
@@ -1771,10 +1956,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13342</v>
+        <v>28947</v>
       </c>
       <c r="C38" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1788,17 +1973,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['setelah', 'mengobrol', 'menit', 'bersama', 'saya', 'dan', 'mang', 'adek', 'londok', 'alhamdulillah', 'beliaunya', 'meminta', 'dituntun', 'membaca', 'dua', 'kalim']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['ngobrol', 'menit', 'mang', 'ade', 'londok', 'alhamdulillah', 'beliaunya', 'dituntun', 'membaca', 'kalim']</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['ngobrol', 'menit', 'mang', 'ade', 'londok', 'alhamdulillah', 'beliau', 'tuntun', 'baca', 'kalim']</t>
+          <t>['mengobrol', 'menit', 'mang', 'adek', 'londok', 'alhamdulillah', 'beliaunya', 'dituntun', 'membaca', 'kalim']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['obrol', 'menit', 'mang', 'adek', 'londok', 'alhamdulillah', 'beliau', 'tuntun', 'baca', 'kalim']</t>
         </is>
       </c>
     </row>
@@ -1807,10 +1997,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13343</v>
+        <v>28948</v>
       </c>
       <c r="C39" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1824,17 +2014,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['beliau', 'tanya', 'saya', 'anda', 'siapa', 'saya', 'jawab', 'guru', 'agama', 'karena', 'dia', 'tidak', 'paham', 'bahasa', 'ustaz', 'mengobrol', 'sebentar', 'kenap']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['beliau', 'guru', 'agama', 'paham', 'bahasa', 'ustadz', 'ngobrol', 'sebentar', 'kenap']</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['beliau', 'guru', 'agama', 'paham', 'bahasa', 'ustadz', 'ngobrol', 'sebentar', 'kenap']</t>
+          <t>['beliau', 'guru', 'agama', 'paham', 'bahasa', 'ustaz', 'mengobrol', 'sebentar', 'kenap']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['beliau', 'guru', 'agama', 'paham', 'bahasa', 'ustaz', 'obrol', 'sebentar', 'kenap']</t>
         </is>
       </c>
     </row>
@@ -1843,10 +2038,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13344</v>
+        <v>28949</v>
       </c>
       <c r="C40" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1860,17 +2055,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['syahadat', 'nya', 'seorang', 'ateis', 'sesaat', 'sebelum', 'syuting', 'mengobrol', 'bareng', 'gus', 'miftah', 'di', 'dengan', 'bintang']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>['syahadat', 'atheis', 'syuting', 'ngobrol', 'bareng', 'gus', 'miftah', 'bintang']</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['syahadat', 'atheis', 'syuting', 'ngobrol', 'bareng', 'gus', 'miftah', 'bintang']</t>
+          <t>['syahadat', 'ateis', 'syuting', 'mengobrol', 'bareng', 'gus', 'miftah', 'bintang']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['syahadat', 'ateis', 'syuting', 'obrol', 'bareng', 'gus', 'miftah', 'bintang']</t>
         </is>
       </c>
     </row>
@@ -1879,10 +2079,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13345</v>
+        <v>28950</v>
       </c>
       <c r="C41" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1896,17 +2096,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['kita', 'sering', 'menjadi', 'hakim', 'bagi', 'kesalahan', 'orang', 'lain', 'dan', 'menjadi', 'jaksa', 'bagi', 'kesalahan', 'kita', 'sendiri', 'ingat', 'saudaraku']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['hakim', 'kesalahan', 'orang', 'jaksa', 'kesalahan', 'sodaraku']</t>
-        </is>
-      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['hakim', 'salah', 'orang', 'jaksa', 'salah', 'sodaraku']</t>
+          <t>['hakim', 'kesalahan', 'orang', 'jaksa', 'kesalahan', 'saudaraku']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['hakim', 'salah', 'orang', 'jaksa', 'salah', 'saudara']</t>
         </is>
       </c>
     </row>
@@ -1915,10 +2120,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13346</v>
+        <v>28951</v>
       </c>
       <c r="C42" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1932,17 +2137,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['mencaci', 'tidak', 'akan', 'menyelesaikan', 'masalah', 'menghujat', 'tidak', 'akan', 'menghentikan', 'mereka', 'untuk', 'bermaksiat', 'tetapi', 'memendam']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>['mencaci', 'menyelesaikan', 'menghujat', 'menghentikan', 'bermaksiat', 'mendam']</t>
-        </is>
-      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['caci', 'selesai', 'hujat', 'henti', 'maksiat', 'dam']</t>
+          <t>['mencaci', 'menyelesaikan', 'menghujat', 'menghentikan', 'bermaksiat', 'memendam']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['caci', 'selesai', 'hujat', 'henti', 'maksiat', 'pendam']</t>
         </is>
       </c>
     </row>
@@ -1951,10 +2161,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13347</v>
+        <v>28952</v>
       </c>
       <c r="C43" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1968,17 +2178,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['lanjutan', 'perintah', 'almaghfurlah', 'simbah', 'ya, iyalah', 'maimoen', 'zubair']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['lanjutan', 'dawuh', 'almaghfurlah', 'simbah', 'yai', 'maimoen', 'zubair']</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['lanjut', 'dawuh', 'almaghfurlah', 'simbah', 'yai', 'maimoen', 'zubair']</t>
+          <t>['lanjutan', 'perintah', 'almaghfurlah', 'simbah', 'ya, iyalah', 'maimoen', 'zubair']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['lanjut', 'perintah', 'almaghfurlah', 'simbah', 'ya iya', 'maimoen', 'zubair']</t>
         </is>
       </c>
     </row>
@@ -1987,10 +2202,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13348</v>
+        <v>28953</v>
       </c>
       <c r="C44" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2004,17 +2219,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['perintah', 'almaghfurlah', 'simbah', 'maemon', 'zubair', 'orang', 'nu', 'jangan', 'mau', 'di', 'adu', 'domba', 'dengan', 'ahlul', 'bait', 'dzurriyah', 'nya', 'nab']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['dawuh', 'almaghfurlah', 'simbah', 'maemon', 'zubair', 'orang', 'nu', 'adu', 'domba', 'ahlul', 'bait', 'dzurriyah', 'nab']</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['dawuh', 'almaghfurlah', 'simbah', 'maemon', 'zubair', 'orang', 'nu', 'adu', 'domba', 'ahlul', 'bait', 'dzurriyah', 'nab']</t>
+          <t>['perintah', 'almaghfurlah', 'simbah', 'maemon', 'zubair', 'orang', 'nu', 'adu', 'domba', 'ahlul', 'bait', 'dzurriyah', 'nab']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['perintah', 'almaghfurlah', 'simbah', 'maemon', 'zubair', 'orang', 'nu', 'adu', 'domba', 'ahlul', 'bait', 'dzurriyah', 'nab']</t>
         </is>
       </c>
     </row>
@@ -2023,10 +2243,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13349</v>
+        <v>28954</v>
       </c>
       <c r="C45" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2040,15 +2260,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['cukup', 'rokib', 'dan', 'atid', 'yang', 'menilai', 'amal', 'ku', 'cangkemu', 'ra', 'sah', 'melumelu']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>['rokib', 'atid', 'menilai', 'amal', 'ku', 'cangkemu', 'ra', 'sah', 'melumelu']</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>['rokib', 'atid', 'nilai', 'amal', 'ku', 'cangkemu', 'ra', 'sah', 'melumelu']</t>
         </is>
